--- a/docs/ms_office_documents/project_gantt_chart.xlsx
+++ b/docs/ms_office_documents/project_gantt_chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87FA5B33-61D7-4F36-AA9B-E188DE513FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387DFD89-F30A-45D2-85E4-708F151590C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="4320" windowWidth="27795" windowHeight="15345" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -876,25 +876,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -934,6 +915,25 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1503,25 +1503,25 @@
   <dimension ref="A1:BL78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="98" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O34" sqref="O34"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37"/>
       <c r="B1" s="43" t="s">
         <v>97</v>
@@ -1533,7 +1533,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36" t="s">
         <v>24</v>
       </c>
@@ -1542,124 +1542,124 @@
       </c>
       <c r="I2" s="39"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="50">
+      <c r="D3" s="62"/>
+      <c r="E3" s="60">
         <v>44580</v>
       </c>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="60"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="57">
         <f>I5</f>
         <v>44578</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="47">
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="57">
         <f>P5</f>
         <v>44585</v>
       </c>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="47">
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="57">
         <f>W5</f>
         <v>44592</v>
       </c>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="47">
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="57">
         <f>AD5</f>
         <v>44599</v>
       </c>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="47">
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="57">
         <f>AK5</f>
         <v>44606</v>
       </c>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="47">
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="57">
         <f>AR5</f>
         <v>44613</v>
       </c>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="49"/>
-      <c r="AY4" s="47">
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="57">
         <f>AY5</f>
         <v>44620</v>
       </c>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="48"/>
-      <c r="BC4" s="48"/>
-      <c r="BD4" s="48"/>
-      <c r="BE4" s="49"/>
-      <c r="BF4" s="47">
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="57">
         <f>BF5</f>
         <v>44627</v>
       </c>
-      <c r="BG4" s="48"/>
-      <c r="BH4" s="48"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="48"/>
-      <c r="BK4" s="48"/>
-      <c r="BL4" s="49"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BG4" s="58"/>
+      <c r="BH4" s="58"/>
+      <c r="BI4" s="58"/>
+      <c r="BJ4" s="58"/>
+      <c r="BK4" s="58"/>
+      <c r="BL4" s="59"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44578</v>
@@ -1885,7 +1885,7 @@
         <v>44633</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>30</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
@@ -2200,19 +2200,19 @@
       <c r="BK7" s="23"/>
       <c r="BL7" s="23"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57">
+      <c r="C8" s="49"/>
+      <c r="D8" s="50">
         <v>1</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="51">
         <v>44580</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="51">
         <v>44587</v>
       </c>
       <c r="G8" s="16"/>
@@ -2274,19 +2274,19 @@
       <c r="BK8" s="23"/>
       <c r="BL8" s="23"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53">
+      <c r="C9" s="45"/>
+      <c r="D9" s="46">
         <v>1</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="47">
         <v>44587</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="47">
         <v>44587</v>
       </c>
       <c r="G9" s="16"/>
@@ -2348,19 +2348,19 @@
       <c r="BK9" s="23"/>
       <c r="BL9" s="23"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57">
+      <c r="C10" s="49"/>
+      <c r="D10" s="50">
         <v>1</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="51">
         <v>44588</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="51">
         <v>44598</v>
       </c>
       <c r="G10" s="16"/>
@@ -2422,21 +2422,21 @@
       <c r="BK10" s="23"/>
       <c r="BL10" s="23"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="54">
         <v>1</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="55">
         <v>44588</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="55">
         <v>44588</v>
       </c>
       <c r="G11" s="16"/>
@@ -2498,21 +2498,21 @@
       <c r="BK11" s="23"/>
       <c r="BL11" s="23"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="36"/>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="54">
         <v>1</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="55">
         <v>44588</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="55">
         <v>44589</v>
       </c>
       <c r="G12" s="16"/>
@@ -2574,21 +2574,21 @@
       <c r="BK12" s="23"/>
       <c r="BL12" s="23"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="54">
         <v>1</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="55">
         <v>44592</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="55">
         <v>44593</v>
       </c>
       <c r="G13" s="16"/>
@@ -2650,21 +2650,21 @@
       <c r="BK13" s="23"/>
       <c r="BL13" s="23"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="36"/>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="54">
         <v>1</v>
       </c>
-      <c r="E14" s="62">
+      <c r="E14" s="55">
         <v>44590</v>
       </c>
-      <c r="F14" s="62">
+      <c r="F14" s="55">
         <v>44591</v>
       </c>
       <c r="G14" s="16"/>
@@ -2726,21 +2726,21 @@
       <c r="BK14" s="23"/>
       <c r="BL14" s="23"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="36"/>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="54">
         <v>1</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="55">
         <v>44594</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="55">
         <v>44595</v>
       </c>
       <c r="G15" s="16"/>
@@ -2802,21 +2802,21 @@
       <c r="BK15" s="23"/>
       <c r="BL15" s="23"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36"/>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="54">
         <v>1</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="55">
         <v>44596</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="55">
         <v>44597</v>
       </c>
       <c r="G16" s="16"/>
@@ -2878,21 +2878,21 @@
       <c r="BK16" s="23"/>
       <c r="BL16" s="23"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="36"/>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="61">
+      <c r="D17" s="54">
         <v>1</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="55">
         <v>44598</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="55">
         <v>44598</v>
       </c>
       <c r="G17" s="16"/>
@@ -2954,21 +2954,21 @@
       <c r="BK17" s="23"/>
       <c r="BL17" s="23"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="36"/>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="54">
         <v>1</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="55">
         <v>44598</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="55">
         <v>44598</v>
       </c>
       <c r="G18" s="16"/>
@@ -3030,19 +3030,19 @@
       <c r="BK18" s="23"/>
       <c r="BL18" s="23"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53">
+      <c r="C19" s="45"/>
+      <c r="D19" s="46">
         <v>1</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="47">
         <v>44598</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="47">
         <v>44598</v>
       </c>
       <c r="G19" s="16"/>
@@ -3104,19 +3104,19 @@
       <c r="BK19" s="23"/>
       <c r="BL19" s="23"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57">
+      <c r="C20" s="49"/>
+      <c r="D20" s="50">
         <v>1</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="51">
         <v>44599</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="51">
         <v>44603</v>
       </c>
       <c r="G20" s="16"/>
@@ -3178,21 +3178,21 @@
       <c r="BK20" s="23"/>
       <c r="BL20" s="23"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="54">
         <v>1</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="55">
         <v>44599</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="55">
         <v>44601</v>
       </c>
       <c r="G21" s="16"/>
@@ -3254,21 +3254,21 @@
       <c r="BK21" s="23"/>
       <c r="BL21" s="23"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="54">
         <v>1</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="55">
         <v>44602</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="55">
         <v>44603</v>
       </c>
       <c r="G22" s="16"/>
@@ -3330,19 +3330,19 @@
       <c r="BK22" s="23"/>
       <c r="BL22" s="23"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57">
-        <v>0.25</v>
-      </c>
-      <c r="E23" s="58">
+      <c r="C23" s="49"/>
+      <c r="D23" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="51">
         <v>44599</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="51">
         <v>44609</v>
       </c>
       <c r="G23" s="16"/>
@@ -3404,19 +3404,21 @@
       <c r="BK23" s="23"/>
       <c r="BL23" s="23"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="36"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62">
+      <c r="D24" s="54">
+        <v>1</v>
+      </c>
+      <c r="E24" s="55">
         <v>44599</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="55">
         <v>44599</v>
       </c>
       <c r="G24" s="16"/>
@@ -3478,19 +3480,21 @@
       <c r="BK24" s="23"/>
       <c r="BL24" s="23"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="36"/>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62">
+      <c r="D25" s="54">
+        <v>1</v>
+      </c>
+      <c r="E25" s="55">
         <v>44600</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F25" s="55">
         <v>44602</v>
       </c>
       <c r="G25" s="16"/>
@@ -3552,19 +3556,21 @@
       <c r="BK25" s="23"/>
       <c r="BL25" s="23"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62">
+      <c r="D26" s="54">
+        <v>1</v>
+      </c>
+      <c r="E26" s="55">
         <v>44603</v>
       </c>
-      <c r="F26" s="62">
+      <c r="F26" s="55">
         <v>44604</v>
       </c>
       <c r="G26" s="16"/>
@@ -3626,19 +3632,21 @@
       <c r="BK26" s="23"/>
       <c r="BL26" s="23"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62">
+      <c r="D27" s="54">
+        <v>1</v>
+      </c>
+      <c r="E27" s="55">
         <v>44605</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="55">
         <v>44607</v>
       </c>
       <c r="G27" s="16"/>
@@ -3700,19 +3708,21 @@
       <c r="BK27" s="23"/>
       <c r="BL27" s="23"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="36"/>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62">
+      <c r="D28" s="54">
+        <v>0.75</v>
+      </c>
+      <c r="E28" s="55">
         <v>44608</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="55">
         <v>44609</v>
       </c>
       <c r="G28" s="16"/>
@@ -3774,17 +3784,17 @@
       <c r="BK28" s="23"/>
       <c r="BL28" s="23"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="36"/>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58">
+      <c r="C29" s="49"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51">
         <v>44610</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F29" s="51">
         <v>44619</v>
       </c>
       <c r="G29" s="16"/>
@@ -3846,19 +3856,19 @@
       <c r="BK29" s="23"/>
       <c r="BL29" s="23"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="36"/>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62">
+      <c r="D30" s="54"/>
+      <c r="E30" s="55">
         <v>44610</v>
       </c>
-      <c r="F30" s="62">
+      <c r="F30" s="55">
         <v>44612</v>
       </c>
       <c r="G30" s="16"/>
@@ -3920,19 +3930,19 @@
       <c r="BK30" s="23"/>
       <c r="BL30" s="23"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="36"/>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62">
+      <c r="D31" s="54"/>
+      <c r="E31" s="55">
         <v>44613</v>
       </c>
-      <c r="F31" s="62">
+      <c r="F31" s="55">
         <v>44615</v>
       </c>
       <c r="G31" s="16"/>
@@ -3994,19 +4004,19 @@
       <c r="BK31" s="23"/>
       <c r="BL31" s="23"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="36"/>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62">
+      <c r="D32" s="54"/>
+      <c r="E32" s="55">
         <v>44616</v>
       </c>
-      <c r="F32" s="62">
+      <c r="F32" s="55">
         <v>44617</v>
       </c>
       <c r="G32" s="16"/>
@@ -4068,19 +4078,19 @@
       <c r="BK32" s="23"/>
       <c r="BL32" s="23"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="36"/>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62">
+      <c r="D33" s="54"/>
+      <c r="E33" s="55">
         <v>44618</v>
       </c>
-      <c r="F33" s="62">
+      <c r="F33" s="55">
         <v>44619</v>
       </c>
       <c r="G33" s="16"/>
@@ -4142,17 +4152,17 @@
       <c r="BK33" s="23"/>
       <c r="BL33" s="23"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="36"/>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54">
+      <c r="C34" s="45"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47">
         <v>44619</v>
       </c>
-      <c r="F34" s="54">
+      <c r="F34" s="47">
         <v>44619</v>
       </c>
       <c r="G34" s="16"/>
@@ -4214,17 +4224,17 @@
       <c r="BK34" s="23"/>
       <c r="BL34" s="23"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="36"/>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="58">
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51">
         <v>44613</v>
       </c>
-      <c r="F35" s="58">
+      <c r="F35" s="51">
         <v>44633</v>
       </c>
       <c r="G35" s="16"/>
@@ -4286,19 +4296,19 @@
       <c r="BK35" s="23"/>
       <c r="BL35" s="23"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="36"/>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62">
+      <c r="D36" s="54"/>
+      <c r="E36" s="55">
         <v>44613</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="55">
         <v>44619</v>
       </c>
       <c r="G36" s="16"/>
@@ -4360,19 +4370,19 @@
       <c r="BK36" s="23"/>
       <c r="BL36" s="23"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="36"/>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62">
+      <c r="D37" s="54"/>
+      <c r="E37" s="55">
         <v>44620</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F37" s="55">
         <v>44624</v>
       </c>
       <c r="G37" s="16"/>
@@ -4434,19 +4444,19 @@
       <c r="BK37" s="23"/>
       <c r="BL37" s="23"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="36"/>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62">
+      <c r="D38" s="54"/>
+      <c r="E38" s="55">
         <v>44625</v>
       </c>
-      <c r="F38" s="62">
+      <c r="F38" s="55">
         <v>44627</v>
       </c>
       <c r="G38" s="16"/>
@@ -4508,19 +4518,19 @@
       <c r="BK38" s="23"/>
       <c r="BL38" s="23"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="36"/>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62">
+      <c r="D39" s="54"/>
+      <c r="E39" s="55">
         <v>44628</v>
       </c>
-      <c r="F39" s="62">
+      <c r="F39" s="55">
         <v>44631</v>
       </c>
       <c r="G39" s="16"/>
@@ -4582,19 +4592,19 @@
       <c r="BK39" s="23"/>
       <c r="BL39" s="23"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="36"/>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="62">
+      <c r="D40" s="54"/>
+      <c r="E40" s="55">
         <v>44632</v>
       </c>
-      <c r="F40" s="62">
+      <c r="F40" s="55">
         <v>44634</v>
       </c>
       <c r="G40" s="16"/>
@@ -4656,17 +4666,17 @@
       <c r="BK40" s="23"/>
       <c r="BL40" s="23"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="36"/>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="58">
+      <c r="C41" s="49"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="51">
         <v>44634</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="51">
         <v>44640</v>
       </c>
       <c r="G41" s="16"/>
@@ -4728,19 +4738,19 @@
       <c r="BK41" s="23"/>
       <c r="BL41" s="23"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="36"/>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="62">
+      <c r="D42" s="54"/>
+      <c r="E42" s="55">
         <v>44634</v>
       </c>
-      <c r="F42" s="62">
+      <c r="F42" s="55">
         <v>44634</v>
       </c>
       <c r="G42" s="16"/>
@@ -4802,19 +4812,19 @@
       <c r="BK42" s="23"/>
       <c r="BL42" s="23"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="36"/>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="62">
+      <c r="D43" s="54"/>
+      <c r="E43" s="55">
         <v>44635</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="55">
         <v>44635</v>
       </c>
       <c r="G43" s="16"/>
@@ -4876,19 +4886,19 @@
       <c r="BK43" s="23"/>
       <c r="BL43" s="23"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="36"/>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="62">
+      <c r="D44" s="54"/>
+      <c r="E44" s="55">
         <v>44636</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="55">
         <v>44636</v>
       </c>
       <c r="G44" s="16"/>
@@ -4950,19 +4960,19 @@
       <c r="BK44" s="23"/>
       <c r="BL44" s="23"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="36"/>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="62">
+      <c r="D45" s="54"/>
+      <c r="E45" s="55">
         <v>44637</v>
       </c>
-      <c r="F45" s="62">
+      <c r="F45" s="55">
         <v>44637</v>
       </c>
       <c r="G45" s="16"/>
@@ -5024,19 +5034,19 @@
       <c r="BK45" s="23"/>
       <c r="BL45" s="23"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="36"/>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62">
+      <c r="D46" s="54"/>
+      <c r="E46" s="55">
         <v>44638</v>
       </c>
-      <c r="F46" s="62">
+      <c r="F46" s="55">
         <v>44638</v>
       </c>
       <c r="G46" s="16"/>
@@ -5098,19 +5108,19 @@
       <c r="BK46" s="23"/>
       <c r="BL46" s="23"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="36"/>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="62">
+      <c r="D47" s="54"/>
+      <c r="E47" s="55">
         <v>44639</v>
       </c>
-      <c r="F47" s="62">
+      <c r="F47" s="55">
         <v>44640</v>
       </c>
       <c r="G47" s="16"/>
@@ -5172,17 +5182,17 @@
       <c r="BK47" s="23"/>
       <c r="BL47" s="23"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="36"/>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="54">
+      <c r="C48" s="45"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47">
         <v>44640</v>
       </c>
-      <c r="F48" s="54">
+      <c r="F48" s="47">
         <v>44640</v>
       </c>
       <c r="G48" s="16"/>
@@ -5244,17 +5254,17 @@
       <c r="BK48" s="23"/>
       <c r="BL48" s="23"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="36"/>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58">
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="51">
         <v>44641</v>
       </c>
-      <c r="F49" s="58">
+      <c r="F49" s="51">
         <v>44647</v>
       </c>
       <c r="G49" s="16"/>
@@ -5316,19 +5326,19 @@
       <c r="BK49" s="23"/>
       <c r="BL49" s="23"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="36"/>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="62">
+      <c r="D50" s="54"/>
+      <c r="E50" s="55">
         <v>44641</v>
       </c>
-      <c r="F50" s="62">
+      <c r="F50" s="55">
         <v>44643</v>
       </c>
       <c r="G50" s="16"/>
@@ -5390,19 +5400,19 @@
       <c r="BK50" s="23"/>
       <c r="BL50" s="23"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="36"/>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="62">
+      <c r="D51" s="54"/>
+      <c r="E51" s="55">
         <v>44644</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="55">
         <v>44647</v>
       </c>
       <c r="G51" s="16"/>
@@ -5464,17 +5474,17 @@
       <c r="BK51" s="23"/>
       <c r="BL51" s="23"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="36"/>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="58">
+      <c r="C52" s="49"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="51">
         <v>44648</v>
       </c>
-      <c r="F52" s="58">
+      <c r="F52" s="51">
         <v>44654</v>
       </c>
       <c r="G52" s="16"/>
@@ -5536,19 +5546,19 @@
       <c r="BK52" s="23"/>
       <c r="BL52" s="23"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="36"/>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="62">
+      <c r="D53" s="54"/>
+      <c r="E53" s="55">
         <v>44648</v>
       </c>
-      <c r="F53" s="62">
+      <c r="F53" s="55">
         <v>44648</v>
       </c>
       <c r="G53" s="16"/>
@@ -5610,19 +5620,19 @@
       <c r="BK53" s="23"/>
       <c r="BL53" s="23"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="36"/>
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="62">
+      <c r="D54" s="54"/>
+      <c r="E54" s="55">
         <v>44649</v>
       </c>
-      <c r="F54" s="62">
+      <c r="F54" s="55">
         <v>44649</v>
       </c>
       <c r="G54" s="16"/>
@@ -5684,19 +5694,19 @@
       <c r="BK54" s="23"/>
       <c r="BL54" s="23"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="36"/>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="62">
+      <c r="D55" s="54"/>
+      <c r="E55" s="55">
         <v>44650</v>
       </c>
-      <c r="F55" s="62">
+      <c r="F55" s="55">
         <v>44651</v>
       </c>
       <c r="G55" s="16"/>
@@ -5758,19 +5768,19 @@
       <c r="BK55" s="23"/>
       <c r="BL55" s="23"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="36"/>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="62">
+      <c r="D56" s="54"/>
+      <c r="E56" s="55">
         <v>44652</v>
       </c>
-      <c r="F56" s="62">
+      <c r="F56" s="55">
         <v>44652</v>
       </c>
       <c r="G56" s="16"/>
@@ -5832,19 +5842,19 @@
       <c r="BK56" s="23"/>
       <c r="BL56" s="23"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="36"/>
-      <c r="B57" s="59" t="s">
+      <c r="B57" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="62">
+      <c r="D57" s="54"/>
+      <c r="E57" s="55">
         <v>44653</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="55">
         <v>44654</v>
       </c>
       <c r="G57" s="16"/>
@@ -5906,17 +5916,17 @@
       <c r="BK57" s="23"/>
       <c r="BL57" s="23"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="36"/>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="54">
+      <c r="C58" s="45"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="47">
         <v>44654</v>
       </c>
-      <c r="F58" s="54">
+      <c r="F58" s="47">
         <v>44654</v>
       </c>
       <c r="G58" s="16"/>
@@ -5978,17 +5988,17 @@
       <c r="BK58" s="23"/>
       <c r="BL58" s="23"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="36"/>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="58">
+      <c r="C59" s="49"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="51">
         <v>44655</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F59" s="51">
         <v>44668</v>
       </c>
       <c r="G59" s="16"/>
@@ -6050,19 +6060,19 @@
       <c r="BK59" s="23"/>
       <c r="BL59" s="23"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="36"/>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="61"/>
-      <c r="E60" s="62">
+      <c r="D60" s="54"/>
+      <c r="E60" s="55">
         <v>44655</v>
       </c>
-      <c r="F60" s="62">
+      <c r="F60" s="55">
         <v>44661</v>
       </c>
       <c r="G60" s="16"/>
@@ -6124,19 +6134,19 @@
       <c r="BK60" s="23"/>
       <c r="BL60" s="23"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="36"/>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="62">
+      <c r="D61" s="54"/>
+      <c r="E61" s="55">
         <v>44662</v>
       </c>
-      <c r="F61" s="62">
+      <c r="F61" s="55">
         <v>44668</v>
       </c>
       <c r="G61" s="16"/>
@@ -6198,17 +6208,17 @@
       <c r="BK61" s="23"/>
       <c r="BL61" s="23"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="36"/>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="52"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="54">
+      <c r="C62" s="45"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="47">
         <v>44668</v>
       </c>
-      <c r="F62" s="54">
+      <c r="F62" s="47">
         <v>44668</v>
       </c>
       <c r="G62" s="16"/>
@@ -6270,17 +6280,17 @@
       <c r="BK62" s="23"/>
       <c r="BL62" s="23"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="36"/>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="58">
+      <c r="C63" s="49"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="51">
         <v>44669</v>
       </c>
-      <c r="F63" s="58">
+      <c r="F63" s="51">
         <v>44682</v>
       </c>
       <c r="G63" s="16"/>
@@ -6342,19 +6352,19 @@
       <c r="BK63" s="23"/>
       <c r="BL63" s="23"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="36"/>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="62">
+      <c r="D64" s="54"/>
+      <c r="E64" s="55">
         <v>44669</v>
       </c>
-      <c r="F64" s="62">
+      <c r="F64" s="55">
         <v>44672</v>
       </c>
       <c r="G64" s="16"/>
@@ -6416,19 +6426,19 @@
       <c r="BK64" s="23"/>
       <c r="BL64" s="23"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="36"/>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="62">
+      <c r="D65" s="54"/>
+      <c r="E65" s="55">
         <v>44673</v>
       </c>
-      <c r="F65" s="62">
+      <c r="F65" s="55">
         <v>44675</v>
       </c>
       <c r="G65" s="16"/>
@@ -6490,19 +6500,19 @@
       <c r="BK65" s="23"/>
       <c r="BL65" s="23"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="36"/>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="61"/>
-      <c r="E66" s="62">
+      <c r="D66" s="54"/>
+      <c r="E66" s="55">
         <v>44676</v>
       </c>
-      <c r="F66" s="62">
+      <c r="F66" s="55">
         <v>44679</v>
       </c>
       <c r="G66" s="16"/>
@@ -6564,19 +6574,19 @@
       <c r="BK66" s="23"/>
       <c r="BL66" s="23"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="36"/>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="62">
+      <c r="D67" s="54"/>
+      <c r="E67" s="55">
         <v>44680</v>
       </c>
-      <c r="F67" s="62">
+      <c r="F67" s="55">
         <v>44682</v>
       </c>
       <c r="G67" s="16"/>
@@ -6638,17 +6648,17 @@
       <c r="BK67" s="23"/>
       <c r="BL67" s="23"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="36"/>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="52"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="54">
+      <c r="C68" s="45"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="47">
         <v>44685</v>
       </c>
-      <c r="F68" s="54">
+      <c r="F68" s="47">
         <v>44685</v>
       </c>
       <c r="G68" s="16"/>
@@ -6710,17 +6720,17 @@
       <c r="BK68" s="23"/>
       <c r="BL68" s="23"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="36"/>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="58">
+      <c r="C69" s="49"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="51">
         <v>44683</v>
       </c>
-      <c r="F69" s="58">
+      <c r="F69" s="51">
         <v>44687</v>
       </c>
       <c r="G69" s="16"/>
@@ -6782,19 +6792,19 @@
       <c r="BK69" s="23"/>
       <c r="BL69" s="23"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="36"/>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="61"/>
-      <c r="E70" s="62">
+      <c r="D70" s="54"/>
+      <c r="E70" s="55">
         <v>44683</v>
       </c>
-      <c r="F70" s="62">
+      <c r="F70" s="55">
         <v>44684</v>
       </c>
       <c r="G70" s="16"/>
@@ -6856,19 +6866,19 @@
       <c r="BK70" s="23"/>
       <c r="BL70" s="23"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="36"/>
-      <c r="B71" s="59" t="s">
+      <c r="B71" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="62">
+      <c r="D71" s="54"/>
+      <c r="E71" s="55">
         <v>44685</v>
       </c>
-      <c r="F71" s="62">
+      <c r="F71" s="55">
         <v>44687</v>
       </c>
       <c r="G71" s="16"/>
@@ -6930,19 +6940,19 @@
       <c r="BK71" s="23"/>
       <c r="BL71" s="23"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="36"/>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C72" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D72" s="61"/>
-      <c r="E72" s="62">
+      <c r="D72" s="54"/>
+      <c r="E72" s="55">
         <v>44685</v>
       </c>
-      <c r="F72" s="62">
+      <c r="F72" s="55">
         <v>44687</v>
       </c>
       <c r="G72" s="16"/>
@@ -7004,17 +7014,17 @@
       <c r="BK72" s="23"/>
       <c r="BL72" s="23"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="36"/>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="52"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="54">
+      <c r="C73" s="45"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="47">
         <v>44687</v>
       </c>
-      <c r="F73" s="54">
+      <c r="F73" s="47">
         <v>44687</v>
       </c>
       <c r="G73" s="16"/>
@@ -7076,17 +7086,17 @@
       <c r="BK73" s="23"/>
       <c r="BL73" s="23"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="36"/>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C74" s="52"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="54">
+      <c r="C74" s="45"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="47">
         <v>44688</v>
       </c>
-      <c r="F74" s="54">
+      <c r="F74" s="47">
         <v>44688</v>
       </c>
       <c r="G74" s="16"/>
@@ -7148,7 +7158,7 @@
       <c r="BK74" s="23"/>
       <c r="BL74" s="23"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="37" t="s">
         <v>25</v>
       </c>
@@ -7221,18 +7231,23 @@
       <c r="BK75" s="24"/>
       <c r="BL75" s="24"/>
     </row>
-    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="14"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7240,11 +7255,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D75">
     <cfRule type="dataBar" priority="18">
@@ -7314,86 +7324,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="26" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="87.109375" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="27"/>
     </row>
-    <row r="3" spans="1:2" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="33"/>
     </row>
-    <row r="4" spans="1:2" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="29" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="26" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="26" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="29" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="26" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="26" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="29" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="26" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="26" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="29" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>16</v>
       </c>

--- a/docs/ms_office_documents/project_gantt_chart.xlsx
+++ b/docs/ms_office_documents/project_gantt_chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387DFD89-F30A-45D2-85E4-708F151590C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB2A8EE-8BF0-448F-A7D3-EE2B3E4D2D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -915,6 +915,13 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -927,13 +934,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1502,9 +1502,9 @@
   </sheetPr>
   <dimension ref="A1:BL78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="98" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1549,117 +1549,117 @@
       <c r="B3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="60">
+      <c r="D3" s="58"/>
+      <c r="E3" s="63">
         <v>44580</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="57">
+      <c r="I4" s="60">
         <f>I5</f>
         <v>44578</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="57">
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="60">
         <f>P5</f>
         <v>44585</v>
       </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="57">
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="60">
         <f>W5</f>
         <v>44592</v>
       </c>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="57">
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="60">
         <f>AD5</f>
         <v>44599</v>
       </c>
-      <c r="AE4" s="58"/>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="58"/>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="57">
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="61"/>
+      <c r="AH4" s="61"/>
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="60">
         <f>AK5</f>
         <v>44606</v>
       </c>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="58"/>
-      <c r="AO4" s="58"/>
-      <c r="AP4" s="58"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="57">
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="60">
         <f>AR5</f>
         <v>44613</v>
       </c>
-      <c r="AS4" s="58"/>
-      <c r="AT4" s="58"/>
-      <c r="AU4" s="58"/>
-      <c r="AV4" s="58"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="57">
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="61"/>
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="60">
         <f>AY5</f>
         <v>44620</v>
       </c>
-      <c r="AZ4" s="58"/>
-      <c r="BA4" s="58"/>
-      <c r="BB4" s="58"/>
-      <c r="BC4" s="58"/>
-      <c r="BD4" s="58"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="57">
+      <c r="AZ4" s="61"/>
+      <c r="BA4" s="61"/>
+      <c r="BB4" s="61"/>
+      <c r="BC4" s="61"/>
+      <c r="BD4" s="61"/>
+      <c r="BE4" s="62"/>
+      <c r="BF4" s="60">
         <f>BF5</f>
         <v>44627</v>
       </c>
-      <c r="BG4" s="58"/>
-      <c r="BH4" s="58"/>
-      <c r="BI4" s="58"/>
-      <c r="BJ4" s="58"/>
-      <c r="BK4" s="58"/>
-      <c r="BL4" s="59"/>
+      <c r="BG4" s="61"/>
+      <c r="BH4" s="61"/>
+      <c r="BI4" s="61"/>
+      <c r="BJ4" s="61"/>
+      <c r="BK4" s="61"/>
+      <c r="BL4" s="62"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44578</v>
@@ -3178,7 +3178,7 @@
       <c r="BK20" s="23"/>
       <c r="BL20" s="23"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
       <c r="B21" s="56" t="s">
         <v>52</v>
@@ -3254,7 +3254,7 @@
       <c r="BK21" s="23"/>
       <c r="BL21" s="23"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
       <c r="B22" s="56" t="s">
         <v>51</v>
@@ -3330,14 +3330,14 @@
       <c r="BK22" s="23"/>
       <c r="BL22" s="23"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="36"/>
       <c r="B23" s="48" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="50">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="E23" s="51">
         <v>44599</v>
@@ -3404,7 +3404,7 @@
       <c r="BK23" s="23"/>
       <c r="BL23" s="23"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="36"/>
       <c r="B24" s="52" t="s">
         <v>57</v>
@@ -3480,7 +3480,7 @@
       <c r="BK24" s="23"/>
       <c r="BL24" s="23"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="36"/>
       <c r="B25" s="52" t="s">
         <v>62</v>
@@ -3556,7 +3556,7 @@
       <c r="BK25" s="23"/>
       <c r="BL25" s="23"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="36"/>
       <c r="B26" s="52" t="s">
         <v>63</v>
@@ -3632,7 +3632,7 @@
       <c r="BK26" s="23"/>
       <c r="BL26" s="23"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
       <c r="B27" s="52" t="s">
         <v>64</v>
@@ -3708,7 +3708,7 @@
       <c r="BK27" s="23"/>
       <c r="BL27" s="23"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="36"/>
       <c r="B28" s="52" t="s">
         <v>73</v>
@@ -3717,7 +3717,7 @@
         <v>36</v>
       </c>
       <c r="D28" s="54">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E28" s="55">
         <v>44608</v>
@@ -3784,13 +3784,15 @@
       <c r="BK28" s="23"/>
       <c r="BL28" s="23"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="36"/>
       <c r="B29" s="48" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
+      <c r="D29" s="50">
+        <v>0.75</v>
+      </c>
       <c r="E29" s="51">
         <v>44610</v>
       </c>
@@ -3864,7 +3866,9 @@
       <c r="C30" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="54">
+        <v>1</v>
+      </c>
       <c r="E30" s="55">
         <v>44610</v>
       </c>
@@ -3938,7 +3942,9 @@
       <c r="C31" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="54"/>
+      <c r="D31" s="54">
+        <v>1</v>
+      </c>
       <c r="E31" s="55">
         <v>44613</v>
       </c>
@@ -4012,7 +4018,9 @@
       <c r="C32" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="54"/>
+      <c r="D32" s="54">
+        <v>1</v>
+      </c>
       <c r="E32" s="55">
         <v>44616</v>
       </c>
@@ -4086,7 +4094,9 @@
       <c r="C33" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="54">
+        <v>0.5</v>
+      </c>
       <c r="E33" s="55">
         <v>44618</v>
       </c>
@@ -7243,11 +7253,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7255,6 +7260,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D75">
     <cfRule type="dataBar" priority="18">

--- a/docs/ms_office_documents/project_gantt_chart.xlsx
+++ b/docs/ms_office_documents/project_gantt_chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB2A8EE-8BF0-448F-A7D3-EE2B3E4D2D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02187341-D9A0-42DA-884D-08B92867EABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="4320" windowWidth="27780" windowHeight="15345" tabRatio="426" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -915,13 +915,6 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -934,6 +927,13 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1504,24 +1504,24 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="BB74" sqref="BB74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.7109375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37"/>
       <c r="B1" s="43" t="s">
         <v>97</v>
@@ -1533,7 +1533,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>24</v>
       </c>
@@ -1542,124 +1542,124 @@
       </c>
       <c r="I2" s="39"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="63">
+      <c r="D3" s="62"/>
+      <c r="E3" s="60">
         <v>44580</v>
       </c>
-      <c r="F3" s="63"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="60"/>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="57">
         <f>I5</f>
         <v>44578</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="60">
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="57">
         <f>P5</f>
         <v>44585</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="60">
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="57">
         <f>W5</f>
         <v>44592</v>
       </c>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="60">
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="57">
         <f>AD5</f>
         <v>44599</v>
       </c>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="61"/>
-      <c r="AH4" s="61"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="60">
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="57">
         <f>AK5</f>
         <v>44606</v>
       </c>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="62"/>
-      <c r="AR4" s="60">
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="57">
         <f>AR5</f>
         <v>44613</v>
       </c>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="61"/>
-      <c r="AU4" s="61"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="60">
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="57">
         <f>AY5</f>
         <v>44620</v>
       </c>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="61"/>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="62"/>
-      <c r="BF4" s="60">
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="57">
         <f>BF5</f>
         <v>44627</v>
       </c>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
-      <c r="BI4" s="61"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="61"/>
-      <c r="BL4" s="62"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG4" s="58"/>
+      <c r="BH4" s="58"/>
+      <c r="BI4" s="58"/>
+      <c r="BJ4" s="58"/>
+      <c r="BK4" s="58"/>
+      <c r="BL4" s="59"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44578</v>
@@ -1885,7 +1885,7 @@
         <v>44633</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>30</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>26</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="BK7" s="23"/>
       <c r="BL7" s="23"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36"/>
       <c r="B8" s="48" t="s">
         <v>43</v>
@@ -2274,7 +2274,7 @@
       <c r="BK8" s="23"/>
       <c r="BL8" s="23"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="44" t="s">
         <v>33</v>
@@ -2348,7 +2348,7 @@
       <c r="BK9" s="23"/>
       <c r="BL9" s="23"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="48" t="s">
         <v>44</v>
@@ -2422,7 +2422,7 @@
       <c r="BK10" s="23"/>
       <c r="BL10" s="23"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="52" t="s">
         <v>65</v>
@@ -2498,7 +2498,7 @@
       <c r="BK11" s="23"/>
       <c r="BL11" s="23"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="52" t="s">
         <v>66</v>
@@ -2574,7 +2574,7 @@
       <c r="BK12" s="23"/>
       <c r="BL12" s="23"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="52" t="s">
         <v>67</v>
@@ -2650,7 +2650,7 @@
       <c r="BK13" s="23"/>
       <c r="BL13" s="23"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="52" t="s">
         <v>68</v>
@@ -2726,7 +2726,7 @@
       <c r="BK14" s="23"/>
       <c r="BL14" s="23"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="52" t="s">
         <v>69</v>
@@ -2802,7 +2802,7 @@
       <c r="BK15" s="23"/>
       <c r="BL15" s="23"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="52" t="s">
         <v>70</v>
@@ -2878,7 +2878,7 @@
       <c r="BK16" s="23"/>
       <c r="BL16" s="23"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="52" t="s">
         <v>71</v>
@@ -2954,7 +2954,7 @@
       <c r="BK17" s="23"/>
       <c r="BL17" s="23"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="52" t="s">
         <v>72</v>
@@ -3030,7 +3030,7 @@
       <c r="BK18" s="23"/>
       <c r="BL18" s="23"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="44" t="s">
         <v>45</v>
@@ -3104,7 +3104,7 @@
       <c r="BK19" s="23"/>
       <c r="BL19" s="23"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="48" t="s">
         <v>34</v>
@@ -3178,7 +3178,7 @@
       <c r="BK20" s="23"/>
       <c r="BL20" s="23"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="56" t="s">
         <v>52</v>
@@ -3254,7 +3254,7 @@
       <c r="BK21" s="23"/>
       <c r="BL21" s="23"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36"/>
       <c r="B22" s="56" t="s">
         <v>51</v>
@@ -3330,14 +3330,14 @@
       <c r="BK22" s="23"/>
       <c r="BL22" s="23"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
       <c r="B23" s="48" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="50">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E23" s="51">
         <v>44599</v>
@@ -3404,7 +3404,7 @@
       <c r="BK23" s="23"/>
       <c r="BL23" s="23"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36"/>
       <c r="B24" s="52" t="s">
         <v>57</v>
@@ -3480,7 +3480,7 @@
       <c r="BK24" s="23"/>
       <c r="BL24" s="23"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="52" t="s">
         <v>62</v>
@@ -3556,7 +3556,7 @@
       <c r="BK25" s="23"/>
       <c r="BL25" s="23"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="52" t="s">
         <v>63</v>
@@ -3632,7 +3632,7 @@
       <c r="BK26" s="23"/>
       <c r="BL26" s="23"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="52" t="s">
         <v>64</v>
@@ -3708,7 +3708,7 @@
       <c r="BK27" s="23"/>
       <c r="BL27" s="23"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
       <c r="B28" s="52" t="s">
         <v>73</v>
@@ -3784,14 +3784,14 @@
       <c r="BK28" s="23"/>
       <c r="BL28" s="23"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
       <c r="B29" s="48" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="49"/>
       <c r="D29" s="50">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E29" s="51">
         <v>44610</v>
@@ -3858,7 +3858,7 @@
       <c r="BK29" s="23"/>
       <c r="BL29" s="23"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
       <c r="B30" s="52" t="s">
         <v>74</v>
@@ -3934,7 +3934,7 @@
       <c r="BK30" s="23"/>
       <c r="BL30" s="23"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="52" t="s">
         <v>75</v>
@@ -4010,7 +4010,7 @@
       <c r="BK31" s="23"/>
       <c r="BL31" s="23"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
       <c r="B32" s="52" t="s">
         <v>76</v>
@@ -4086,7 +4086,7 @@
       <c r="BK32" s="23"/>
       <c r="BL32" s="23"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="52" t="s">
         <v>73</v>
@@ -4095,7 +4095,7 @@
         <v>36</v>
       </c>
       <c r="D33" s="54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E33" s="55">
         <v>44618</v>
@@ -4162,13 +4162,15 @@
       <c r="BK33" s="23"/>
       <c r="BL33" s="23"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="45"/>
-      <c r="D34" s="46"/>
+      <c r="D34" s="46">
+        <v>1</v>
+      </c>
       <c r="E34" s="47">
         <v>44619</v>
       </c>
@@ -4234,7 +4236,7 @@
       <c r="BK34" s="23"/>
       <c r="BL34" s="23"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="36"/>
       <c r="B35" s="48" t="s">
         <v>46</v>
@@ -4306,7 +4308,7 @@
       <c r="BK35" s="23"/>
       <c r="BL35" s="23"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36"/>
       <c r="B36" s="52" t="s">
         <v>53</v>
@@ -4380,7 +4382,7 @@
       <c r="BK36" s="23"/>
       <c r="BL36" s="23"/>
     </row>
-    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="36"/>
       <c r="B37" s="52" t="s">
         <v>54</v>
@@ -4454,7 +4456,7 @@
       <c r="BK37" s="23"/>
       <c r="BL37" s="23"/>
     </row>
-    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="52" t="s">
         <v>55</v>
@@ -4528,7 +4530,7 @@
       <c r="BK38" s="23"/>
       <c r="BL38" s="23"/>
     </row>
-    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36"/>
       <c r="B39" s="52" t="s">
         <v>56</v>
@@ -4602,7 +4604,7 @@
       <c r="BK39" s="23"/>
       <c r="BL39" s="23"/>
     </row>
-    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="36"/>
       <c r="B40" s="52" t="s">
         <v>73</v>
@@ -4676,7 +4678,7 @@
       <c r="BK40" s="23"/>
       <c r="BL40" s="23"/>
     </row>
-    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="36"/>
       <c r="B41" s="48" t="s">
         <v>35</v>
@@ -4748,7 +4750,7 @@
       <c r="BK41" s="23"/>
       <c r="BL41" s="23"/>
     </row>
-    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="36"/>
       <c r="B42" s="52" t="s">
         <v>77</v>
@@ -4822,7 +4824,7 @@
       <c r="BK42" s="23"/>
       <c r="BL42" s="23"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="36"/>
       <c r="B43" s="52" t="s">
         <v>78</v>
@@ -4896,7 +4898,7 @@
       <c r="BK43" s="23"/>
       <c r="BL43" s="23"/>
     </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36"/>
       <c r="B44" s="52" t="s">
         <v>79</v>
@@ -4970,7 +4972,7 @@
       <c r="BK44" s="23"/>
       <c r="BL44" s="23"/>
     </row>
-    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="36"/>
       <c r="B45" s="52" t="s">
         <v>80</v>
@@ -5044,7 +5046,7 @@
       <c r="BK45" s="23"/>
       <c r="BL45" s="23"/>
     </row>
-    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36"/>
       <c r="B46" s="52" t="s">
         <v>81</v>
@@ -5118,7 +5120,7 @@
       <c r="BK46" s="23"/>
       <c r="BL46" s="23"/>
     </row>
-    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36"/>
       <c r="B47" s="52" t="s">
         <v>73</v>
@@ -5192,7 +5194,7 @@
       <c r="BK47" s="23"/>
       <c r="BL47" s="23"/>
     </row>
-    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="36"/>
       <c r="B48" s="44" t="s">
         <v>37</v>
@@ -5264,7 +5266,7 @@
       <c r="BK48" s="23"/>
       <c r="BL48" s="23"/>
     </row>
-    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="36"/>
       <c r="B49" s="48" t="s">
         <v>47</v>
@@ -5336,7 +5338,7 @@
       <c r="BK49" s="23"/>
       <c r="BL49" s="23"/>
     </row>
-    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="36"/>
       <c r="B50" s="52" t="s">
         <v>82</v>
@@ -5410,7 +5412,7 @@
       <c r="BK50" s="23"/>
       <c r="BL50" s="23"/>
     </row>
-    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36"/>
       <c r="B51" s="52" t="s">
         <v>83</v>
@@ -5484,7 +5486,7 @@
       <c r="BK51" s="23"/>
       <c r="BL51" s="23"/>
     </row>
-    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="36"/>
       <c r="B52" s="48" t="s">
         <v>60</v>
@@ -5556,7 +5558,7 @@
       <c r="BK52" s="23"/>
       <c r="BL52" s="23"/>
     </row>
-    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="36"/>
       <c r="B53" s="52" t="s">
         <v>84</v>
@@ -5630,7 +5632,7 @@
       <c r="BK53" s="23"/>
       <c r="BL53" s="23"/>
     </row>
-    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="36"/>
       <c r="B54" s="52" t="s">
         <v>85</v>
@@ -5704,7 +5706,7 @@
       <c r="BK54" s="23"/>
       <c r="BL54" s="23"/>
     </row>
-    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="36"/>
       <c r="B55" s="52" t="s">
         <v>86</v>
@@ -5778,7 +5780,7 @@
       <c r="BK55" s="23"/>
       <c r="BL55" s="23"/>
     </row>
-    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="36"/>
       <c r="B56" s="52" t="s">
         <v>87</v>
@@ -5852,7 +5854,7 @@
       <c r="BK56" s="23"/>
       <c r="BL56" s="23"/>
     </row>
-    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="36"/>
       <c r="B57" s="52" t="s">
         <v>73</v>
@@ -5926,7 +5928,7 @@
       <c r="BK57" s="23"/>
       <c r="BL57" s="23"/>
     </row>
-    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="36"/>
       <c r="B58" s="44" t="s">
         <v>38</v>
@@ -5998,7 +6000,7 @@
       <c r="BK58" s="23"/>
       <c r="BL58" s="23"/>
     </row>
-    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="36"/>
       <c r="B59" s="48" t="s">
         <v>61</v>
@@ -6070,7 +6072,7 @@
       <c r="BK59" s="23"/>
       <c r="BL59" s="23"/>
     </row>
-    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="36"/>
       <c r="B60" s="52" t="s">
         <v>88</v>
@@ -6144,7 +6146,7 @@
       <c r="BK60" s="23"/>
       <c r="BL60" s="23"/>
     </row>
-    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="36"/>
       <c r="B61" s="52" t="s">
         <v>89</v>
@@ -6218,7 +6220,7 @@
       <c r="BK61" s="23"/>
       <c r="BL61" s="23"/>
     </row>
-    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="36"/>
       <c r="B62" s="44" t="s">
         <v>40</v>
@@ -6290,7 +6292,7 @@
       <c r="BK62" s="23"/>
       <c r="BL62" s="23"/>
     </row>
-    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="36"/>
       <c r="B63" s="48" t="s">
         <v>48</v>
@@ -6362,7 +6364,7 @@
       <c r="BK63" s="23"/>
       <c r="BL63" s="23"/>
     </row>
-    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="36"/>
       <c r="B64" s="52" t="s">
         <v>92</v>
@@ -6436,7 +6438,7 @@
       <c r="BK64" s="23"/>
       <c r="BL64" s="23"/>
     </row>
-    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="36"/>
       <c r="B65" s="52" t="s">
         <v>93</v>
@@ -6510,7 +6512,7 @@
       <c r="BK65" s="23"/>
       <c r="BL65" s="23"/>
     </row>
-    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="36"/>
       <c r="B66" s="52" t="s">
         <v>94</v>
@@ -6584,7 +6586,7 @@
       <c r="BK66" s="23"/>
       <c r="BL66" s="23"/>
     </row>
-    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="36"/>
       <c r="B67" s="52" t="s">
         <v>95</v>
@@ -6658,7 +6660,7 @@
       <c r="BK67" s="23"/>
       <c r="BL67" s="23"/>
     </row>
-    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="36"/>
       <c r="B68" s="44" t="s">
         <v>41</v>
@@ -6730,7 +6732,7 @@
       <c r="BK68" s="23"/>
       <c r="BL68" s="23"/>
     </row>
-    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="36"/>
       <c r="B69" s="48" t="s">
         <v>49</v>
@@ -6802,7 +6804,7 @@
       <c r="BK69" s="23"/>
       <c r="BL69" s="23"/>
     </row>
-    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="36"/>
       <c r="B70" s="52" t="s">
         <v>96</v>
@@ -6876,7 +6878,7 @@
       <c r="BK70" s="23"/>
       <c r="BL70" s="23"/>
     </row>
-    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="36"/>
       <c r="B71" s="52" t="s">
         <v>90</v>
@@ -6950,7 +6952,7 @@
       <c r="BK71" s="23"/>
       <c r="BL71" s="23"/>
     </row>
-    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="36"/>
       <c r="B72" s="52" t="s">
         <v>91</v>
@@ -7024,7 +7026,7 @@
       <c r="BK72" s="23"/>
       <c r="BL72" s="23"/>
     </row>
-    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="36"/>
       <c r="B73" s="44" t="s">
         <v>50</v>
@@ -7096,7 +7098,7 @@
       <c r="BK73" s="23"/>
       <c r="BL73" s="23"/>
     </row>
-    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="36"/>
       <c r="B74" s="44" t="s">
         <v>42</v>
@@ -7168,7 +7170,7 @@
       <c r="BK74" s="23"/>
       <c r="BL74" s="23"/>
     </row>
-    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="37" t="s">
         <v>25</v>
       </c>
@@ -7241,18 +7243,23 @@
       <c r="BK75" s="24"/>
       <c r="BL75" s="24"/>
     </row>
-    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="14"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -7260,11 +7267,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D75">
     <cfRule type="dataBar" priority="18">
@@ -7334,86 +7336,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="26" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="87.140625" style="26" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="27"/>
     </row>
-    <row r="3" spans="1:2" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="32" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="33"/>
     </row>
-    <row r="4" spans="1:2" s="29" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="26" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="26" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="29" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="26" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="26" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="29" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="26" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="26" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="29" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" s="29" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>16</v>
       </c>
